--- a/teaching/traditional_assets/database/data/serbia/serbia_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/serbia/serbia_insurance_general.xlsx
@@ -591,40 +591,40 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.07336757153338223</v>
+        <v>0.1180102915951973</v>
       </c>
       <c r="H2">
-        <v>0.07336757153338223</v>
+        <v>0.1180102915951973</v>
       </c>
       <c r="I2">
-        <v>0.0847395451210565</v>
+        <v>0.1080617495711835</v>
       </c>
       <c r="J2">
-        <v>0.077793084555339</v>
+        <v>0.09409436522362459</v>
       </c>
       <c r="K2">
-        <v>21.1</v>
+        <v>28.8</v>
       </c>
       <c r="L2">
-        <v>0.07740278796771827</v>
+        <v>0.09879931389365351</v>
       </c>
       <c r="M2">
-        <v>5.32</v>
+        <v>6.9</v>
       </c>
       <c r="N2">
-        <v>0.01934545454545455</v>
+        <v>0.02436440677966102</v>
       </c>
       <c r="O2">
-        <v>0.2521327014218009</v>
+        <v>0.2395833333333333</v>
       </c>
       <c r="P2">
-        <v>5.32</v>
+        <v>6.9</v>
       </c>
       <c r="Q2">
-        <v>0.01934545454545455</v>
+        <v>0.02436440677966102</v>
       </c>
       <c r="R2">
-        <v>0.2521327014218009</v>
+        <v>0.2395833333333333</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>22.9</v>
+        <v>36</v>
       </c>
       <c r="V2">
-        <v>0.08327272727272726</v>
+        <v>0.1271186440677966</v>
       </c>
       <c r="W2">
-        <v>0.1846019247594051</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="X2">
-        <v>0.06620602888967106</v>
+        <v>0.06375921118516384</v>
       </c>
       <c r="Y2">
-        <v>0.118395895869734</v>
+        <v>0.171534906461895</v>
       </c>
       <c r="Z2">
-        <v>3.039391675679292</v>
+        <v>2.89992041384799</v>
       </c>
       <c r="AA2">
-        <v>0.2364436536229126</v>
+        <v>0.2728661705400574</v>
       </c>
       <c r="AB2">
-        <v>0.06617526699371046</v>
+        <v>0.06370550425146632</v>
       </c>
       <c r="AC2">
-        <v>0.1702683866292022</v>
+        <v>0.209160666288591</v>
       </c>
       <c r="AD2">
-        <v>1.02</v>
+        <v>1.36</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.02</v>
+        <v>1.36</v>
       </c>
       <c r="AG2">
-        <v>-21.88</v>
+        <v>-34.64</v>
       </c>
       <c r="AH2">
-        <v>0.003695384392435331</v>
+        <v>0.004779308405960079</v>
       </c>
       <c r="AI2">
-        <v>0.008100381194409149</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="AJ2">
-        <v>-0.08644121365360302</v>
+        <v>-0.1393627293208883</v>
       </c>
       <c r="AK2">
-        <v>-0.2123859444768006</v>
+        <v>-0.3202662721893491</v>
       </c>
       <c r="AL2">
-        <v>0.127</v>
+        <v>0.111</v>
       </c>
       <c r="AM2">
-        <v>0.127</v>
+        <v>0.111</v>
       </c>
       <c r="AN2">
-        <v>0.03834586466165413</v>
+        <v>0.03976608187134503</v>
       </c>
       <c r="AO2">
-        <v>181.8897637795276</v>
+        <v>283.7837837837838</v>
       </c>
       <c r="AP2">
-        <v>-0.8225563909774435</v>
+        <v>-1.012865497076023</v>
       </c>
       <c r="AQ2">
-        <v>181.8897637795276</v>
+        <v>283.7837837837838</v>
       </c>
     </row>
     <row r="3">
@@ -719,40 +719,40 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.07336757153338223</v>
+        <v>0.1180102915951973</v>
       </c>
       <c r="H3">
-        <v>0.07336757153338223</v>
+        <v>0.1180102915951973</v>
       </c>
       <c r="I3">
-        <v>0.0847395451210565</v>
+        <v>0.1080617495711835</v>
       </c>
       <c r="J3">
-        <v>0.077793084555339</v>
+        <v>0.09409436522362459</v>
       </c>
       <c r="K3">
-        <v>21.1</v>
+        <v>28.8</v>
       </c>
       <c r="L3">
-        <v>0.07740278796771827</v>
+        <v>0.09879931389365351</v>
       </c>
       <c r="M3">
-        <v>5.32</v>
+        <v>6.9</v>
       </c>
       <c r="N3">
-        <v>0.01934545454545455</v>
+        <v>0.02436440677966102</v>
       </c>
       <c r="O3">
-        <v>0.2521327014218009</v>
+        <v>0.2395833333333333</v>
       </c>
       <c r="P3">
-        <v>5.32</v>
+        <v>6.9</v>
       </c>
       <c r="Q3">
-        <v>0.01934545454545455</v>
+        <v>0.02436440677966102</v>
       </c>
       <c r="R3">
-        <v>0.2521327014218009</v>
+        <v>0.2395833333333333</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>22.9</v>
+        <v>36</v>
       </c>
       <c r="V3">
-        <v>0.08327272727272726</v>
+        <v>0.1271186440677966</v>
       </c>
       <c r="W3">
-        <v>0.1846019247594051</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="X3">
-        <v>0.06620602888967106</v>
+        <v>0.06375921118516384</v>
       </c>
       <c r="Y3">
-        <v>0.118395895869734</v>
+        <v>0.171534906461895</v>
       </c>
       <c r="Z3">
-        <v>3.039391675679292</v>
+        <v>2.89992041384799</v>
       </c>
       <c r="AA3">
-        <v>0.2364436536229126</v>
+        <v>0.2728661705400574</v>
       </c>
       <c r="AB3">
-        <v>0.06617526699371046</v>
+        <v>0.06370550425146632</v>
       </c>
       <c r="AC3">
-        <v>0.1702683866292022</v>
+        <v>0.209160666288591</v>
       </c>
       <c r="AD3">
-        <v>1.02</v>
+        <v>1.36</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.02</v>
+        <v>1.36</v>
       </c>
       <c r="AG3">
-        <v>-21.88</v>
+        <v>-34.64</v>
       </c>
       <c r="AH3">
-        <v>0.003695384392435331</v>
+        <v>0.004779308405960079</v>
       </c>
       <c r="AI3">
-        <v>0.008100381194409149</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="AJ3">
-        <v>-0.08644121365360302</v>
+        <v>-0.1393627293208883</v>
       </c>
       <c r="AK3">
-        <v>-0.2123859444768006</v>
+        <v>-0.3202662721893491</v>
       </c>
       <c r="AL3">
-        <v>0.127</v>
+        <v>0.111</v>
       </c>
       <c r="AM3">
-        <v>0.127</v>
+        <v>0.111</v>
       </c>
       <c r="AN3">
-        <v>0.03834586466165413</v>
+        <v>0.03976608187134503</v>
       </c>
       <c r="AO3">
-        <v>181.8897637795276</v>
+        <v>283.7837837837838</v>
       </c>
       <c r="AP3">
-        <v>-0.8225563909774435</v>
+        <v>-1.012865497076023</v>
       </c>
       <c r="AQ3">
-        <v>181.8897637795276</v>
+        <v>283.7837837837838</v>
       </c>
     </row>
   </sheetData>
